--- a/Technology/Software/Bill.xlsx
+++ b/Technology/Software/Bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B329E48C-9409-8340-BD91-095D001E3D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D40A92-159D-3F43-8385-601B3781C737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,9 +537,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1010,6 +1010,7 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,7 +1029,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,13 +2228,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>205.92</v>
+    <v>179.85</v>
     <v>68.3</v>
-    <v>1.9623999999999999</v>
-    <v>2.73</v>
-    <v>3.5602999999999996E-2</v>
-    <v>-0.01</v>
-    <v>-1.259E-4</v>
+    <v>1.9148000000000001</v>
+    <v>-2.56</v>
+    <v>-2.6211000000000002E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>BILL Holdings, Inc., formerly Bill.com Holdings, Inc., is a provider of cloud-based software that digitizes and automates financial operations for small and midsize businesses (SMBs). The Company's artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Customers use its platform to generate and process invoices, streamline approvals, make and receive payments, manage employee expenses, sync with their accounting systems, and manage their cash. Through its platform customers can view their cash in-flows and outflows as well as bills coming due. It also offers document management and bill capture. It offers various payment services, including automated clearing house (ACH) payments, card payments, real-time payments (RTP), checks, and cross-border payments. It also offers value-added services, such as two-way sync with accounting systems, purchase order (PO) matching, and treasury services.</v>
     <v>2269</v>
@@ -2240,25 +2242,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>79.64</v>
+    <v>100.87</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.993679918749</v>
+    <v>45071.998521296096</v>
     <v>0</v>
-    <v>77.19</v>
-    <v>8448075000</v>
+    <v>94.26</v>
+    <v>10107358722</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>78.489999999999995</v>
+    <v>99.78</v>
     <v>0</v>
-    <v>76.680000000000007</v>
-    <v>79.41</v>
-    <v>79.400000000000006</v>
-    <v>106385500</v>
+    <v>97.67</v>
+    <v>95.11</v>
+    <v>95.11</v>
+    <v>106270200</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>1932594</v>
-    <v>1908135</v>
+    <v>1794650</v>
+    <v>2134248</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2423,9 +2425,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2846,10 +2848,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3407,15 +3409,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>13.159835752750565</v>
+        <v>15.744554904596711</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-25.885675678160073</v>
+        <v>-30.969872999531194</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>-400.30681387414705</v>
+        <v>-478.9309477824109</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4775,10 +4777,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="61" t="s">
+      <c r="M83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="62"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4799,10 +4801,10 @@
       <c r="F84" s="1">
         <v>-3771000</v>
       </c>
-      <c r="M84" s="63" t="s">
+      <c r="M84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="64"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5044,10 +5046,10 @@
       <c r="F93" s="1">
         <v>-145483000</v>
       </c>
-      <c r="M93" s="63" t="s">
+      <c r="M93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="64"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5099,7 +5101,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.9623999999999999</v>
+        <v>1.9148000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5152,7 +5154,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12543132000000001</v>
+        <v>0.12338214000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5174,10 +5176,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="63" t="s">
+      <c r="M98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="64"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5230,7 +5232,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.17408836706753528</v>
+        <v>0.14978989373900078</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5257,7 +5259,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8448075000</v>
+        <v>10107358722</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5284,7 +5286,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.82591163293246472</v>
+        <v>0.85021010626099924</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5311,7 +5313,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>10228788000</v>
+        <v>11888071722</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5333,10 +5335,10 @@
       <c r="F104" s="11">
         <v>3542715000</v>
       </c>
-      <c r="M104" s="63" t="s">
+      <c r="M104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="64"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5359,18 +5361,28 @@
         <f>(F106/E106)-1</f>
         <v>0.27262859554965924</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
+      <c r="G105" s="66">
+        <v>-83258000</v>
+      </c>
+      <c r="H105" s="66">
+        <v>26371000</v>
+      </c>
+      <c r="I105" s="66">
+        <v>20038000</v>
+      </c>
+      <c r="J105" s="66">
+        <v>221500000</v>
+      </c>
+      <c r="K105" s="66">
+        <v>313200000</v>
+      </c>
       <c r="L105" s="15"/>
       <c r="M105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10638395138598625</v>
+        <v>0.10730026410658164</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5392,23 +5404,23 @@
       <c r="F106" s="1">
         <v>-21104000</v>
       </c>
-      <c r="G106" s="65">
+      <c r="G106" s="59">
         <f>F106*(1+$N$106)</f>
         <v>-27569158.317443859</v>
       </c>
-      <c r="H106" s="65">
+      <c r="H106" s="59">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>-36014901.930074103</v>
       </c>
-      <c r="I106" s="65">
+      <c r="I106" s="59">
         <f t="shared" si="8"/>
         <v>-47047978.25518515</v>
       </c>
-      <c r="J106" s="65">
+      <c r="J106" s="59">
         <f t="shared" si="8"/>
         <v>-61461010.283967756</v>
       </c>
-      <c r="K106" s="65">
+      <c r="K106" s="59">
         <f t="shared" si="8"/>
         <v>-80289439.10484989</v>
       </c>
@@ -5434,9 +5446,9 @@
       <c r="H107" s="41"/>
       <c r="I107" s="41"/>
       <c r="J107" s="41"/>
-      <c r="K107" s="44">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>-1011215032.9511039</v>
+      <c r="K107" s="67">
+        <f>K105*(1+N107)/(N108-N107)</f>
+        <v>3900716522.4191165</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>148</v>
@@ -5465,9 +5477,9 @@
         <f>J107+J106</f>
         <v>-61461010.283967756</v>
       </c>
-      <c r="K108" s="44">
-        <f>K107+K106</f>
-        <v>-1091504472.0559537</v>
+      <c r="K108" s="67">
+        <f>K107+K105</f>
+        <v>4213916522.4191165</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>144</v>
@@ -5477,14 +5489,14 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.10638395138598625</v>
+        <v>0.10730026410658164</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="59" t="s">
+      <c r="G109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="60"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="50" t="s">
@@ -5492,7 +5504,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>-788507431.55020738</v>
+        <v>2401582408.6926103</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5519,48 +5531,48 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>135814568.44979262</v>
+        <v>3325904408.6926098</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H114" s="51">
-        <f>F34*(1+(5*0.05))</f>
-        <v>127191250</v>
+        <v>159</v>
+      </c>
+      <c r="H114" s="51" cm="1">
+        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>106270200</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G115" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H115" s="53">
         <f>H113/H114</f>
-        <v>1.0677980478200555</v>
+        <v>31.296679677770531</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G116" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>79.41</v>
+        <v>95.11</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G117" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H117" s="55">
         <f>H115/H116-1</f>
-        <v>-0.9865533553983119</v>
+        <v>-0.67094228075101947</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G118" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H118" s="56" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>

--- a/Technology/Software/Bill.xlsx
+++ b/Technology/Software/Bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D40A92-159D-3F43-8385-601B3781C737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BE5D8-DDEF-DA4D-9198-2AAACA17EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,6 +1011,8 @@
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,8 +1031,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,37 +2230,37 @@
     <v>Powered by Refinitiv</v>
     <v>179.85</v>
     <v>68.3</v>
-    <v>1.9148000000000001</v>
-    <v>-2.56</v>
-    <v>-2.6211000000000002E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.9572000000000001</v>
+    <v>3.16</v>
+    <v>3.3224999999999998E-2</v>
+    <v>0.33</v>
+    <v>3.3579999999999999E-3</v>
     <v>USD</v>
-    <v>BILL Holdings, Inc., formerly Bill.com Holdings, Inc., is a provider of cloud-based software that digitizes and automates financial operations for small and midsize businesses (SMBs). The Company's artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Customers use its platform to generate and process invoices, streamline approvals, make and receive payments, manage employee expenses, sync with their accounting systems, and manage their cash. Through its platform customers can view their cash in-flows and outflows as well as bills coming due. It also offers document management and bill capture. It offers various payment services, including automated clearing house (ACH) payments, card payments, real-time payments (RTP), checks, and cross-border payments. It also offers value-added services, such as two-way sync with accounting systems, purchase order (PO) matching, and treasury services.</v>
+    <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
     <v>2269</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>100.87</v>
+    <v>99.87</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.998521296096</v>
+    <v>45072.959927314063</v>
     <v>0</v>
-    <v>94.26</v>
-    <v>10107358722</v>
+    <v>95.33</v>
+    <v>10443170000</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>99.78</v>
+    <v>95.83</v>
     <v>0</v>
-    <v>97.67</v>
     <v>95.11</v>
-    <v>95.11</v>
+    <v>98.27</v>
+    <v>98.6</v>
     <v>106270200</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>1794650</v>
-    <v>2134248</v>
+    <v>1712620</v>
+    <v>2158419</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2425,9 +2425,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2851,7 +2851,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3409,15 +3409,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>15.744554904596711</v>
+        <v>16.267658838025483</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-30.969872999531194</v>
+        <v>-31.998829517007241</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>-478.9309477824109</v>
+        <v>-494.84315769522368</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4777,10 +4777,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="62" t="s">
+      <c r="M83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="63"/>
+      <c r="N83" s="65"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4801,10 +4801,10 @@
       <c r="F84" s="1">
         <v>-3771000</v>
       </c>
-      <c r="M84" s="64" t="s">
+      <c r="M84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="65"/>
+      <c r="N84" s="67"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5046,10 +5046,10 @@
       <c r="F93" s="1">
         <v>-145483000</v>
       </c>
-      <c r="M93" s="64" t="s">
+      <c r="M93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="65"/>
+      <c r="N93" s="67"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.9148000000000001</v>
+        <v>1.9572000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12338214000000002</v>
+        <v>0.12520745999999999</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5176,10 +5176,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="64" t="s">
+      <c r="M98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="65"/>
+      <c r="N98" s="67"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.14978989373900078</v>
+        <v>0.14567490542898684</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10107358722</v>
+        <v>10443170000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.85021010626099924</v>
+        <v>0.85432509457101313</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>11888071722</v>
+        <v>12223883000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
       <c r="F104" s="11">
         <v>3542715000</v>
       </c>
-      <c r="M104" s="64" t="s">
+      <c r="M104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="65"/>
+      <c r="N104" s="67"/>
     </row>
     <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5361,19 +5361,19 @@
         <f>(F106/E106)-1</f>
         <v>0.27262859554965924</v>
       </c>
-      <c r="G105" s="66">
+      <c r="G105" s="60">
         <v>-83258000</v>
       </c>
-      <c r="H105" s="66">
+      <c r="H105" s="60">
         <v>26371000</v>
       </c>
-      <c r="I105" s="66">
+      <c r="I105" s="60">
         <v>20038000</v>
       </c>
-      <c r="J105" s="66">
+      <c r="J105" s="60">
         <v>221500000</v>
       </c>
-      <c r="K105" s="66">
+      <c r="K105" s="60">
         <v>313200000</v>
       </c>
       <c r="L105" s="15"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10730026410658164</v>
+        <v>0.10930147782572522</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5446,9 +5446,9 @@
       <c r="H107" s="41"/>
       <c r="I107" s="41"/>
       <c r="J107" s="41"/>
-      <c r="K107" s="67">
+      <c r="K107" s="61">
         <f>K105*(1+N107)/(N108-N107)</f>
-        <v>3900716522.4191165</v>
+        <v>3808118294.9563346</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>148</v>
@@ -5477,9 +5477,9 @@
         <f>J107+J106</f>
         <v>-61461010.283967756</v>
       </c>
-      <c r="K108" s="67">
+      <c r="K108" s="61">
         <f>K107+K105</f>
-        <v>4213916522.4191165</v>
+        <v>4121318294.9563346</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>144</v>
@@ -5489,14 +5489,14 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.10730026410658164</v>
+        <v>0.10930147782572522</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="61"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="50" t="s">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2401582408.6926103</v>
+        <v>2324337578.570806</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>3325904408.6926098</v>
+        <v>3248659578.5708065</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H115" s="53">
         <f>H113/H114</f>
-        <v>31.296679677770531</v>
+        <v>30.569807703107799</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>95.11</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="H117" s="55">
         <f>H115/H116-1</f>
-        <v>-0.67094228075101947</v>
+        <v>-0.68892024317586453</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Bill.xlsx
+++ b/Technology/Software/Bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BE5D8-DDEF-DA4D-9198-2AAACA17EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0237A-893B-D840-A8E3-F95E5B209D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2230,11 +2230,9 @@
     <v>Powered by Refinitiv</v>
     <v>179.85</v>
     <v>68.3</v>
-    <v>1.9572000000000001</v>
-    <v>3.16</v>
-    <v>3.3224999999999998E-2</v>
-    <v>0.33</v>
-    <v>3.3579999999999999E-3</v>
+    <v>1.9254</v>
+    <v>1.22</v>
+    <v>1.1231E-2</v>
     <v>USD</v>
     <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
     <v>2269</v>
@@ -2242,25 +2240,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>99.87</v>
+    <v>110.03</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.959927314063</v>
+    <v>45099.995333575782</v>
     <v>0</v>
-    <v>95.33</v>
-    <v>10443170000</v>
+    <v>107.3</v>
+    <v>11673781470</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>95.83</v>
+    <v>107.8</v>
     <v>0</v>
-    <v>95.11</v>
-    <v>98.27</v>
-    <v>98.6</v>
+    <v>108.63</v>
+    <v>109.85</v>
     <v>106270200</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>1712620</v>
-    <v>2158419</v>
+    <v>35</v>
+    <v>1692455</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2292,8 +2289,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2314,7 +2309,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2331,7 +2325,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2342,16 +2336,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2417,19 +2408,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2474,9 +2459,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2484,9 +2466,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2848,7 +2827,7 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
@@ -3409,15 +3388,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>16.267658838025483</v>
+        <v>18.184621556828397</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-31.998829517007241</v>
+        <v>-35.769535790121985</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>-494.84315769522368</v>
+        <v>-553.15492181576951</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5101,7 +5080,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.9572000000000001</v>
+        <v>1.9254</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5133,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12520745999999999</v>
+        <v>0.12383847000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5232,7 +5211,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.14567490542898684</v>
+        <v>0.13235079206955888</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5259,7 +5238,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10443170000</v>
+        <v>11673781470</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5286,7 +5265,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.85432509457101313</v>
+        <v>0.86764920793044109</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5313,7 +5292,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>12223883000</v>
+        <v>13454494470</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5382,7 +5361,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10930147782572522</v>
+        <v>0.10956851082489691</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5448,7 +5427,7 @@
       <c r="J107" s="41"/>
       <c r="K107" s="61">
         <f>K105*(1+N107)/(N108-N107)</f>
-        <v>3808118294.9563346</v>
+        <v>3796093804.521493</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>148</v>
@@ -5479,7 +5458,7 @@
       </c>
       <c r="K108" s="61">
         <f>K107+K105</f>
-        <v>4121318294.9563346</v>
+        <v>4109293804.521493</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>144</v>
@@ -5489,7 +5468,7 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.10930147782572522</v>
+        <v>0.10956851082489691</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5504,7 +5483,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2324337578.570806</v>
+        <v>2314320808.9054751</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5531,7 +5510,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>3248659578.5708065</v>
+        <v>3238642808.9054756</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5549,7 +5528,7 @@
       </c>
       <c r="H115" s="53">
         <f>H113/H114</f>
-        <v>30.569807703107799</v>
+        <v>30.475550143930054</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5558,7 +5537,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>98.27</v>
+        <v>109.85</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5567,7 +5546,7 @@
       </c>
       <c r="H117" s="55">
         <f>H115/H116-1</f>
-        <v>-0.68892024317586453</v>
+        <v>-0.72257123218998587</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Bill.xlsx
+++ b/Technology/Software/Bill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0237A-893B-D840-A8E3-F95E5B209D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D69C37-943C-D94A-8BCF-5877894B62C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2230,9 +2230,9 @@
     <v>Powered by Refinitiv</v>
     <v>179.85</v>
     <v>68.3</v>
-    <v>1.9254</v>
-    <v>1.22</v>
-    <v>1.1231E-2</v>
+    <v>1.9392</v>
+    <v>3.87</v>
+    <v>3.3696000000000004E-2</v>
     <v>USD</v>
     <v>BILL Holdings, Inc. is a provider of software-as-a-service, cloud-based payments, and spending and expense management products. It enables users to automate accounts payable and accounts receivable transactions, enable businesses to connect with their suppliers and/or customers to do business, eliminate expense reports, manage cash flows, and improve back-office efficiency. It offers financial automation software for small and midsize businesses (SMBs). Through its automated solutions, it helps SMBs simplify and control their finances. It is a partner of the United States financial institutions, accounting firms, and accounting software providers. Its artificial-intelligence (AI)-enabled financial software platform creates connections between its customers, their suppliers, and their clients. Businesses on its platform generate and process invoices, streamline approvals, make, and receive payments, manage employee expenses, sync with their accounting system, and manage their cash.</v>
     <v>2269</v>
@@ -2240,24 +2240,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6220 America Center Dr., Suite 100, SAN JOSE, CA, 95002 US</v>
-    <v>110.03</v>
+    <v>119.58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.995333575782</v>
+    <v>45105.998586399997</v>
     <v>0</v>
-    <v>107.3</v>
-    <v>11673781470</v>
+    <v>113.7</v>
+    <v>12616398144</v>
     <v>BILL HOLDINGS, INC.</v>
     <v>BILL HOLDINGS, INC.</v>
-    <v>107.8</v>
+    <v>113.78</v>
     <v>0</v>
-    <v>108.63</v>
-    <v>109.85</v>
+    <v>114.85</v>
+    <v>118.72</v>
     <v>106270200</v>
     <v>BILL</v>
     <v>BILL HOLDINGS, INC. (XNYS:BILL)</v>
-    <v>35</v>
-    <v>1692455</v>
+    <v>1</v>
+    <v>1687939</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2830,7 +2830,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3388,15 +3388,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>18.184621556828397</v>
+        <v>19.652965600606894</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-35.769535790121985</v>
+        <v>-38.65779962679364</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>-553.15492181576951</v>
+        <v>-597.8202304776346</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.9254</v>
+        <v>1.9392</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12383847000000001</v>
+        <v>0.12443256000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.13235079206955888</v>
+        <v>0.12368543815417531</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11673781470</v>
+        <v>12616398144</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.86764920793044109</v>
+        <v>0.87631456184582468</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>13454494470</v>
+        <v>14397111144</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10956851082489691</v>
+        <v>0.11102341224363395</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
       <c r="J107" s="41"/>
       <c r="K107" s="61">
         <f>K105*(1+N107)/(N108-N107)</f>
-        <v>3796093804.521493</v>
+        <v>3731891023.9317722</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>148</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="K108" s="61">
         <f>K107+K105</f>
-        <v>4109293804.521493</v>
+        <v>4045091023.9317722</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>144</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.10956851082489691</v>
+        <v>0.11102341224363395</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2314320808.9054751</v>
+        <v>2260894386.7716489</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>3238642808.9054756</v>
+        <v>3185216386.7716484</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="H115" s="53">
         <f>H113/H114</f>
-        <v>30.475550143930054</v>
+        <v>29.972808809728864</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="H116" s="58" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>109.85</v>
+        <v>118.72</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="H117" s="55">
         <f>H115/H116-1</f>
-        <v>-0.72257123218998587</v>
+        <v>-0.74753361851643474</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Bill.xlsx
+++ b/Technology/Software/Bill.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D69C37-943C-D94A-8BCF-5877894B62C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC59824-A4D5-6F42-BB64-6623167B344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,62 +855,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -937,98 +919,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>BILL</a:t>
+              <a:t>Bill</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1120,10 +1096,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.064127025444133E-2"/>
-          <c:y val="0.11127548390536962"/>
-          <c:w val="0.87307773801002153"/>
-          <c:h val="0.7580919286895007"/>
+          <c:x val="7.8125767520908634E-2"/>
+          <c:y val="0.1505766580889312"/>
+          <c:w val="0.87021860872726609"/>
+          <c:h val="0.69708968716319719"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1177,6 +1153,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$F$3</c:f>
@@ -1203,7 +1203,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8012-A34D-B83A-624803A173CC}"/>
+              <c16:uniqueId val="{00000000-E50C-E746-B6E9-5BD2015C6A4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1212,11 +1212,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1254,33 +1254,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-4444000</c:v>
+                  <c:v>-7195000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3491000</c:v>
+                  <c:v>-7314000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26552000</c:v>
+                  <c:v>-31091000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-100170000</c:v>
+                  <c:v>-98720000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-246066000</c:v>
+                  <c:v>-326361000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8012-A34D-B83A-624803A173CC}"/>
+              <c16:uniqueId val="{00000001-E50C-E746-B6E9-5BD2015C6A4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1289,11 +1313,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1331,9 +1355,33 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1357,7 +1405,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8012-A34D-B83A-624803A173CC}"/>
+              <c16:uniqueId val="{00000002-E50C-E746-B6E9-5BD2015C6A4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,11 +1419,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1829975263"/>
-        <c:axId val="1875457183"/>
+        <c:axId val="401777696"/>
+        <c:axId val="397237152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1829975263"/>
+        <c:axId val="401777696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1451,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1415,7 +1463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875457183"/>
+        <c:crossAx val="397237152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875457183"/>
+        <c:axId val="397237152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829975263"/>
+        <c:crossAx val="401777696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,10 +1537,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34979537970976771"/>
-          <c:y val="0.91309592790743144"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.6272017916496329E-2"/>
+          <c:x val="0.34285004506960992"/>
+          <c:y val="0.88851164704787278"/>
+          <c:w val="0.31429980556919168"/>
+          <c:h val="6.2614742945736587E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2074,20 +2122,20 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFD2CE0-FB26-92BA-0655-62894DD5745A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24A134D-ED31-4291-6108-9F519BDA37DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,6 +2154,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2827,10 +2929,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2859,19 +2961,19 @@
       <c r="F1" s="8">
         <v>2022</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2023</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2024</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2025</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2026</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2880,28 +2982,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2929,37 +3031,37 @@
       <c r="F3" s="1">
         <v>641959000</v>
       </c>
-      <c r="G3" s="29">
-        <v>1003000000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>1259000000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>1583000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>2020000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>2385000000</v>
+      <c r="G3" s="25">
+        <v>1042000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1297000000</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1656000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>2105000000</v>
+      </c>
+      <c r="K3" s="25">
+        <v>2356000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2980,23 +3082,23 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.56240507571355813</v>
+        <v>0.62315661903641817</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25523429710867407</v>
+        <v>0.24472168905950098</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25734710087370938</v>
+        <v>0.276792598303778</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27605811749842069</v>
+        <v>0.27113526570048307</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18069306930693063</v>
+        <v>0.11923990498812342</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3011,7 +3113,7 @@
         <v>2.5773366505490083</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>0.42616866033147516</v>
       </c>
       <c r="S4" s="16"/>
@@ -3073,16 +3175,16 @@
         <v>496955000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3117,7 +3219,7 @@
         <v>-0.50839999999999996</v>
       </c>
       <c r="O7" s="21">
-        <f>F106/F3</f>
+        <f>F107/F3</f>
         <v>-3.2874373597067727E-2</v>
       </c>
     </row>
@@ -3143,7 +3245,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3168,16 +3270,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3256,21 +3358,21 @@
         <v>548325000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3316,16 +3418,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>45630000</v>
@@ -3351,16 +3453,16 @@
         <v>813773000</v>
       </c>
       <c r="L15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3382,24 +3484,24 @@
       <c r="F16" s="1">
         <v>958777000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>0.16430020288267783</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="54">
         <f>N101/F3</f>
         <v>19.652965600606894</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="54">
         <f>N101/F28</f>
         <v>-38.65779962679364</v>
       </c>
-      <c r="O16" s="32">
-        <f>N101/F106</f>
+      <c r="O16" s="55">
+        <f>N101/F107</f>
         <v>-597.8202304776346</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3419,7 +3521,7 @@
         <v>28158000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3439,10 +3541,19 @@
         <v>75977000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3461,14 +3572,41 @@
       <c r="F19" s="10">
         <v>-246066000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="G19" s="58">
+        <v>110100000</v>
+      </c>
+      <c r="H19" s="58">
+        <v>167000000</v>
+      </c>
+      <c r="I19" s="58">
+        <v>229000000</v>
+      </c>
+      <c r="J19" s="58">
+        <v>443000000</v>
+      </c>
+      <c r="K19" s="58">
+        <v>589000000</v>
+      </c>
+      <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>924322000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="54">
+        <f>N101/G3</f>
+        <v>12.107867700575817</v>
+      </c>
+      <c r="N19" s="54">
+        <f>N101/G28</f>
+        <v>72.927156901734108</v>
+      </c>
+      <c r="O19" s="55">
+        <f>N101/G105</f>
+        <v>-67.199340851951135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3484,11 +3622,31 @@
         <v>2.7725971678216332</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:K20" si="3">(F19/E19)-1</f>
         <v>1.4564839772386944</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.4474409304820659</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.51680290644868299</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.37125748502994016</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.93449781659388642</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.32957110609480811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3507,8 +3665,34 @@
       <c r="F21" s="2">
         <v>-0.38329999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21" s="59">
+        <f>G19/G3</f>
+        <v>0.10566218809980805</v>
+      </c>
+      <c r="H21" s="59">
+        <f t="shared" ref="H21:K21" si="4">H19/H3</f>
+        <v>0.12875867386276021</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.13828502415458938</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.21045130641330168</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3527,8 +3711,16 @@
       <c r="F22" s="10">
         <v>-316818000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="N22" s="56">
+        <f>(-1*F98)/N101</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="57">
+        <f>F107/N101</f>
+        <v>-1.6727436594125291E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3548,7 +3740,7 @@
         <v>-0.49349999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3568,7 +3760,7 @@
         <v>-13861000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3588,7 +3780,7 @@
         <v>-330679000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3608,7 +3800,7 @@
         <v>-0.5151</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3628,7 +3820,7 @@
         <v>4318000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3647,10 +3839,25 @@
       <c r="F28" s="11">
         <v>-326361000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="60">
+        <v>173000000</v>
+      </c>
+      <c r="H28" s="60">
+        <v>216000000</v>
+      </c>
+      <c r="I28" s="60">
+        <v>284000000</v>
+      </c>
+      <c r="J28" s="60">
+        <v>367000000</v>
+      </c>
+      <c r="K28" s="60">
+        <v>386000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3666,11 +3873,31 @@
         <v>2.175195394165514</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:K29" si="5">(F28/E28)-1</f>
         <v>2.30592585089141</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.5300878475062891</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24855491329479773</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.31481481481481488</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.29225352112676051</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.1771117166212521E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3689,8 +3916,28 @@
       <c r="F30" s="2">
         <v>-0.50839999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30" s="61">
+        <f>G28/G3</f>
+        <v>0.16602687140115163</v>
+      </c>
+      <c r="H30" s="61">
+        <f t="shared" ref="H30:K30" si="6">H28/H3</f>
+        <v>0.16653816499614496</v>
+      </c>
+      <c r="I30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.17149758454106281</v>
+      </c>
+      <c r="J30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.17434679334916864</v>
+      </c>
+      <c r="K30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.16383701188455008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3709,8 +3956,23 @@
       <c r="F31" s="12">
         <v>-3.21</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G31" s="62">
+        <v>1.63</v>
+      </c>
+      <c r="H31" s="62">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I31" s="62">
+        <v>2.67</v>
+      </c>
+      <c r="J31" s="62">
+        <v>3.45</v>
+      </c>
+      <c r="K31" s="62">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3772,7 +4034,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3780,15 +4042,15 @@
         <v>-5.0539849995879009E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>-0.23425753919338876</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.87759035051920375</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22870805308345307</v>
       </c>
     </row>
@@ -3797,19 +4059,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3817,19 +4079,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3917,19 +4179,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3997,13 +4259,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>1772043000</v>
@@ -4017,13 +4279,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>417341000</v>
@@ -4037,13 +4299,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>2189384000</v>
@@ -4057,19 +4319,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4077,19 +4339,19 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4137,19 +4399,19 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4226,10 +4488,10 @@
         <v>2976000</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4300,10 +4562,10 @@
         <v>5833000</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>1076020000</v>
@@ -4337,19 +4599,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>9090000</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4397,19 +4659,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4557,19 +4819,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4577,19 +4839,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4637,13 +4899,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>-176000</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-40617000</v>
@@ -4674,26 +4936,26 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:F80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:F80" si="8">B79/B3</f>
         <v>2.3818700377707547E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7673856263440116E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11461928934010153</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28661364447149185</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30711774427961908</v>
       </c>
     </row>
@@ -4742,24 +5004,24 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="M83" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="66"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4780,8 +5042,8 @@
       <c r="F84" s="1">
         <v>-3771000</v>
       </c>
-      <c r="M84" s="66" t="s">
-        <v>127</v>
+      <c r="M84" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="N84" s="67"/>
     </row>
@@ -4802,12 +5064,12 @@
         <v>6854000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N85" s="25">
+        <v>91</v>
+      </c>
+      <c r="M85" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="34">
         <f>F17</f>
         <v>28158000</v>
       </c>
@@ -4829,12 +5091,12 @@
         <v>36777000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="N86" s="25">
+        <v>91</v>
+      </c>
+      <c r="M86" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="N86" s="34">
         <f>F56</f>
         <v>0</v>
       </c>
@@ -4858,10 +5120,10 @@
       <c r="F87" s="10">
         <v>-18093000</v>
       </c>
-      <c r="M87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" s="25">
+      <c r="M87" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="34">
         <f>F61</f>
         <v>1780713000</v>
       </c>
@@ -4885,42 +5147,42 @@
       <c r="F88" s="1">
         <v>-5377000</v>
       </c>
-      <c r="M88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="N88" s="35">
+      <c r="M88" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="36">
         <f>N85/(N86+N87)</f>
         <v>1.5812767133165199E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:F89" si="9">(-1*B88)/B3</f>
+        <v>2.0242041162414244E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5315871565560078E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.6624365482233503E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.9331836400646338E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.3759243191543382E-3</v>
+      </c>
+      <c r="M89" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:F89" si="7">(-1*B88)/B3</f>
-        <v>2.0242041162414244E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5315871565560078E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6624365482233503E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.9331836400646338E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.3759243191543382E-3</v>
-      </c>
-      <c r="M89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N89" s="25">
+      <c r="N89" s="34">
         <f>F27</f>
         <v>4318000</v>
       </c>
@@ -4930,13 +5192,13 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-556090000</v>
@@ -4944,10 +5206,10 @@
       <c r="F90" s="1">
         <v>-144349000</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="25">
+      <c r="N90" s="34">
         <f>F25</f>
         <v>-330679000</v>
       </c>
@@ -4971,10 +5233,10 @@
       <c r="F91" s="1">
         <v>-2790311000</v>
       </c>
-      <c r="M91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N91" s="35">
+      <c r="M91" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="N91" s="36">
         <f>N89/N90</f>
         <v>-1.3057980700316621E-2</v>
       </c>
@@ -4998,10 +5260,10 @@
       <c r="F92" s="1">
         <v>1958218000</v>
       </c>
-      <c r="M92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="37">
+      <c r="M92" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="N92" s="36">
         <f>N88*(1-N91)</f>
         <v>1.6019249941208673E-2</v>
       </c>
@@ -5025,8 +5287,8 @@
       <c r="F93" s="1">
         <v>-145483000</v>
       </c>
-      <c r="M93" s="66" t="s">
-        <v>134</v>
+      <c r="M93" s="67" t="s">
+        <v>132</v>
       </c>
       <c r="N93" s="67"/>
     </row>
@@ -5049,11 +5311,12 @@
       <c r="F94" s="10">
         <v>-1127302000</v>
       </c>
-      <c r="M94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N94" s="38">
-        <v>4.095E-2</v>
+      <c r="M94" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N94" s="37">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5067,7 +5330,7 @@
         <v>-9500000</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1">
         <v>-2300000</v>
@@ -5075,10 +5338,10 @@
       <c r="F95" s="1">
         <v>-40000000</v>
       </c>
-      <c r="M95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="57" cm="1">
+      <c r="M95" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" s="38" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
         <v>1.9392</v>
       </c>
@@ -5088,24 +5351,24 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>533657000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>1341122000</v>
       </c>
-      <c r="M96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="N96" s="38">
+      <c r="M96" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5114,26 +5377,26 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="37">
+        <v>91</v>
+      </c>
+      <c r="M97" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="36">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12443256000000001</v>
+        <v>0.12615129600000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5141,22 +5404,22 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="66" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="67" t="s">
+        <v>137</v>
       </c>
       <c r="N98" s="67"/>
     </row>
@@ -5179,10 +5442,10 @@
       <c r="F99" s="1">
         <v>1577444000</v>
       </c>
-      <c r="M99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="N99" s="25">
+      <c r="M99" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="34">
         <f>N86+N87</f>
         <v>1780713000</v>
       </c>
@@ -5206,10 +5469,10 @@
       <c r="F100" s="10">
         <v>2878566000</v>
       </c>
-      <c r="M100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N100" s="35">
+      <c r="M100" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="36">
         <f>N99/N103</f>
         <v>0.12368543815417531</v>
       </c>
@@ -5219,22 +5482,22 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-149000</v>
       </c>
-      <c r="M101" s="24" t="s">
-        <v>142</v>
+      <c r="M101" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
@@ -5260,10 +5523,10 @@
       <c r="F102" s="10">
         <v>1733022000</v>
       </c>
-      <c r="M102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N102" s="35">
+      <c r="M102" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="36">
         <f>N101/N103</f>
         <v>0.87631456184582468</v>
       </c>
@@ -5287,15 +5550,15 @@
       <c r="F103" s="1">
         <v>1809693000</v>
       </c>
-      <c r="M103" s="36" t="s">
-        <v>144</v>
+      <c r="M103" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
         <v>14397111144</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5314,181 +5577,200 @@
       <c r="F104" s="11">
         <v>3542715000</v>
       </c>
-      <c r="M104" s="66" t="s">
+      <c r="M104" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="N104" s="67"/>
+    </row>
+    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-10454600</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-10106400</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-27739400</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-71182600</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-0.2))+F77+F88+F81</f>
+        <v>-143645400</v>
+      </c>
+      <c r="G105" s="30">
+        <f>F105*(1+$N$106)</f>
+        <v>-187745861.55235603</v>
+      </c>
+      <c r="H105" s="30">
+        <f t="shared" ref="H105:K105" si="11">G105*(1+$N$106)</f>
+        <v>-245385571.2054576</v>
+      </c>
+      <c r="I105" s="30">
+        <f t="shared" si="11"/>
+        <v>-320721202.89605963</v>
+      </c>
+      <c r="J105" s="30">
+        <f t="shared" si="11"/>
+        <v>-419185567.76498729</v>
+      </c>
+      <c r="K105" s="30">
+        <f t="shared" si="11"/>
+        <v>-547879400.03892267</v>
+      </c>
+      <c r="L105" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M105" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" s="42">
+        <f>(N100*N92)+(N102*N97)</f>
+        <v>0.11252956562840261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.20707556239184777</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>1.0012124151309409</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>4.6649703138252896E-3</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.27262859554965924</v>
+      </c>
+      <c r="G106" s="31">
+        <v>-86000000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>11000000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>2105000</v>
+      </c>
+      <c r="J106" s="31">
+        <v>153000000</v>
+      </c>
+      <c r="K106" s="31">
+        <v>371000000</v>
+      </c>
+      <c r="L106" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M106" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="N106" s="44">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.30700921541766074</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-10402000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-8248000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-16506000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-16583000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-21104000</v>
+      </c>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="32">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>4344532013.4960651</v>
+      </c>
+      <c r="L107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="67"/>
-    </row>
-    <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.20707556239184777</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>1.0012124151309409</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>4.6649703138252896E-3</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.27262859554965924</v>
-      </c>
-      <c r="G105" s="60">
-        <v>-83258000</v>
-      </c>
-      <c r="H105" s="60">
-        <v>26371000</v>
-      </c>
-      <c r="I105" s="60">
-        <v>20038000</v>
-      </c>
-      <c r="J105" s="60">
-        <v>221500000</v>
-      </c>
-      <c r="K105" s="60">
-        <v>313200000</v>
-      </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="N105" s="27">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11102341224363395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-10402000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-8248000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-16506000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-16583000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-21104000</v>
-      </c>
-      <c r="G106" s="59">
-        <f>F106*(1+$N$106)</f>
-        <v>-27569158.317443859</v>
-      </c>
-      <c r="H106" s="59">
-        <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
-        <v>-36014901.930074103</v>
-      </c>
-      <c r="I106" s="59">
-        <f t="shared" si="8"/>
-        <v>-47047978.25518515</v>
-      </c>
-      <c r="J106" s="59">
-        <f t="shared" si="8"/>
-        <v>-61461010.283967756</v>
-      </c>
-      <c r="K106" s="59">
-        <f t="shared" si="8"/>
-        <v>-80289439.10484989</v>
-      </c>
-      <c r="L106" s="41" t="s">
+      <c r="M107" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="42" t="s">
+      <c r="N107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="32">
+        <f t="shared" ref="G108:J108" si="12">G107+G106</f>
+        <v>-86000000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="12"/>
+        <v>11000000</v>
+      </c>
+      <c r="I108" s="32">
+        <f t="shared" si="12"/>
+        <v>2105000</v>
+      </c>
+      <c r="J108" s="32">
+        <f t="shared" si="12"/>
+        <v>153000000</v>
+      </c>
+      <c r="K108" s="32">
+        <f>K107+K106</f>
+        <v>4715532013.4960651</v>
+      </c>
+      <c r="L108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="M108" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="N106" s="43">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.30634753210025856</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="61">
-        <f>K105*(1+N107)/(N108-N107)</f>
-        <v>3731891023.9317722</v>
-      </c>
-      <c r="L107" s="45" t="s">
+      <c r="N108" s="44">
+        <f>N105</f>
+        <v>0.11252956562840261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="46" t="s">
+      <c r="H109" s="64"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="48" t="s">
         <v>149</v>
-      </c>
-      <c r="N107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="44">
-        <f t="shared" ref="G108:I108" si="9">G107+G106</f>
-        <v>-27569158.317443859</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="9"/>
-        <v>-36014901.930074103</v>
-      </c>
-      <c r="I108" s="44">
-        <f t="shared" si="9"/>
-        <v>-47047978.25518515</v>
-      </c>
-      <c r="J108" s="44">
-        <f>J107+J106</f>
-        <v>-61461010.283967756</v>
-      </c>
-      <c r="K108" s="61">
-        <f>K107+K105</f>
-        <v>4045091023.9317722</v>
-      </c>
-      <c r="L108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="N108" s="49">
-        <f>N105</f>
-        <v>0.11102341224363395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="63"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>2260894386.7716489</v>
+        <v>2799755930.3136768</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="50" t="s">
-        <v>153</v>
+      <c r="G111" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="H111" s="39">
         <f>F40</f>
@@ -5496,8 +5778,8 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="50" t="s">
-        <v>140</v>
+      <c r="G112" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="H112" s="39">
         <f>N99</f>
@@ -5505,55 +5787,55 @@
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="50" t="s">
-        <v>154</v>
+      <c r="G113" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>3185216386.7716484</v>
+        <v>3724077930.3136768</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="51" cm="1">
+      <c r="G114" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" s="48" cm="1">
         <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>106270200</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" s="53">
+      <c r="G115" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H115" s="50">
         <f>H113/H114</f>
-        <v>29.972808809728864</v>
+        <v>35.043482841978999</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H116" s="58" cm="1">
+      <c r="G116" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="H116" s="51" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
         <v>118.72</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="H117" s="55">
+      <c r="G117" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H117" s="52">
         <f>H115/H116-1</f>
-        <v>-0.74753361851643474</v>
+        <v>-0.70482241541459745</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="56" t="str">
+      <c r="G118" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" s="53" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5580,8 +5862,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1786352/000178635222000017/0001786352-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1786352/000178635222000017/0001786352-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NYSE:BILL/explorer/revenue_proj" xr:uid="{B3C3E18B-C048-F341-82D5-4F5290F0948F}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{6AC46BAC-544F-4E40-AC53-C2355FA6F3DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>